--- a/ne583/Homework/hw04/Flux Solver.xlsx
+++ b/ne583/Homework/hw04/Flux Solver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrpowers-luhn/nucnotes/ne583/Homework/hw04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FBE059-B879-5B4F-8D5E-01CE40D33057}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0295B5-7A84-7640-9711-F6EF5D042164}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="1080" windowWidth="24380" windowHeight="22020" activeTab="2" xr2:uid="{95312167-5D1D-2B47-B41E-A908A7098FE7}"/>
+    <workbookView xWindow="8280" yWindow="1080" windowWidth="28080" windowHeight="22020" activeTab="2" xr2:uid="{95312167-5D1D-2B47-B41E-A908A7098FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="k-eff" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>Group</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>alpha/v</t>
+  </si>
+  <si>
+    <t>P-R</t>
   </si>
 </sst>
 </file>
@@ -930,15 +933,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDD769B-A39F-9A4F-ACC8-DE19FA44B43F}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -973,22 +979,25 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.99807541638815478</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="D2">
-        <f>0.072+$L$2*E2</f>
-        <v>20.071999999999999</v>
+        <f>0.072+$M$2*E2</f>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1007,29 +1016,33 @@
       </c>
       <c r="J2">
         <f>SUMPRODUCT(B2:B5,C2:C5)</f>
-        <v>0.99999999999992184</v>
+        <v>5.71</v>
       </c>
       <c r="K2">
         <f>D2*B2</f>
-        <v>20.033369757743042</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="L2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <f>J2-K2</f>
+        <v>-1.4899999999999993</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.97620514982549156</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="D3">
-        <f>0.2+$L$2*E3</f>
-        <v>7.2</v>
+        <f>0.2+$M$2*E3</f>
+        <v>0.2</v>
       </c>
       <c r="E3">
         <v>0.7</v>
@@ -1048,26 +1061,30 @@
       </c>
       <c r="J3">
         <f>B2*G2</f>
-        <v>6.9865279147170847E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="K3">
         <f>D3*B3</f>
-        <v>7.0286770787435398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L5" si="0">J3-K3</f>
+        <v>5.0000000000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.13218778504181528</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2.48</v>
       </c>
       <c r="D4">
-        <f>2.02+$L$2*E4</f>
-        <v>4.0199999999999996</v>
+        <f>2.02+$M$2*E4</f>
+        <v>2.02</v>
       </c>
       <c r="E4">
         <v>0.2</v>
@@ -1086,26 +1103,30 @@
       </c>
       <c r="J4">
         <f>B3*H3</f>
-        <v>0.12690666947731391</v>
+        <v>1.3</v>
       </c>
       <c r="K4">
         <f>D4*B4</f>
-        <v>0.53139489586809741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2.02</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.30015146405897586</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <f>1+$L$2*E5</f>
-        <v>4</v>
+        <f>1+$M$2*E5</f>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0.3</v>
@@ -1124,11 +1145,15 @@
       </c>
       <c r="J5">
         <f>B4*I4</f>
-        <v>7.6668915324252851E-2</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K5">
         <f>D5*B5</f>
-        <v>1.2006058562359034</v>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>-0.42000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/ne583/Homework/hw04/Flux Solver.xlsx
+++ b/ne583/Homework/hw04/Flux Solver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrpowers-luhn/nucnotes/ne583/Homework/hw04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0295B5-7A84-7640-9711-F6EF5D042164}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2C4646-9922-B841-9DB4-073C57E82419}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="1080" windowWidth="28080" windowHeight="22020" activeTab="2" xr2:uid="{95312167-5D1D-2B47-B41E-A908A7098FE7}"/>
+    <workbookView xWindow="8280" yWindow="1080" windowWidth="28080" windowHeight="22020" xr2:uid="{95312167-5D1D-2B47-B41E-A908A7098FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="k-eff" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Group</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>P-R</t>
+  </si>
+  <si>
+    <t>nu-sigma_f / k</t>
+  </si>
+  <si>
+    <t>s-&gt;4</t>
   </si>
 </sst>
 </file>
@@ -498,15 +504,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1AC7E8-0836-0E4F-86B4-7362F5AB4F69}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,15 +553,18 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.99807541638815478</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>5.4999999999999997E-3</v>
@@ -581,19 +593,23 @@
       </c>
       <c r="K2">
         <f>D2*B2</f>
-        <v>7.1861429979947142E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="L2">
         <f>SUMPRODUCT(C2:C5,B2:B5)</f>
-        <v>0.99999999999992184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.5534999999999997</v>
+      </c>
+      <c r="M2">
+        <f>C2/$L$2</f>
+        <v>1.2078620841111233E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.97620514982549156</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>6.8000000000000005E-2</v>
@@ -618,19 +634,23 @@
       </c>
       <c r="J3">
         <f>B2*G2</f>
-        <v>6.9865279147170847E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K3">
         <f>D3*B3</f>
-        <v>0.19524102996509832</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M5" si="0">C3/$L$2</f>
+        <v>1.493356758537389E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.13218778504181528</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2.48</v>
@@ -655,19 +675,23 @@
       </c>
       <c r="J4">
         <f>B3*H3</f>
-        <v>0.12690666947731391</v>
+        <v>0.13</v>
       </c>
       <c r="K4">
         <f>D4*B4</f>
-        <v>0.26701932578446685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.02</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.54463599429010656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.30015146405897586</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -692,11 +716,15 @@
       </c>
       <c r="J5">
         <f>B4*I4</f>
-        <v>7.6668915324252851E-2</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K5">
         <f>D5*B5</f>
-        <v>0.30015146405897586</v>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0.43922257604040849</v>
       </c>
     </row>
   </sheetData>
@@ -935,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDD769B-A39F-9A4F-ACC8-DE19FA44B43F}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -964,13 +992,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -990,7 +1018,8 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <f>1/D2</f>
+        <v>13.888888888888889</v>
       </c>
       <c r="C2">
         <v>5.4999999999999997E-3</v>
@@ -1016,15 +1045,15 @@
       </c>
       <c r="J2">
         <f>SUMPRODUCT(B2:B5,C2:C5)</f>
-        <v>5.71</v>
+        <v>1.5456958195819583</v>
       </c>
       <c r="K2">
         <f>D2*B2</f>
-        <v>7.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <f>J2-K2</f>
-        <v>-1.4899999999999993</v>
+        <v>0.54569581958195834</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1035,7 +1064,8 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <f>B2*G2/D3</f>
+        <v>4.8611111111111116</v>
       </c>
       <c r="C3">
         <v>6.8000000000000005E-2</v>
@@ -1061,15 +1091,15 @@
       </c>
       <c r="J3">
         <f>B2*G2</f>
-        <v>7.0000000000000009</v>
+        <v>0.97222222222222232</v>
       </c>
       <c r="K3">
         <f>D3*B3</f>
-        <v>2</v>
+        <v>0.97222222222222232</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L5" si="0">J3-K3</f>
-        <v>5.0000000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1077,7 +1107,8 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <f>B3*H3/D4</f>
+        <v>0.31284378437843791</v>
       </c>
       <c r="C4">
         <v>2.48</v>
@@ -1103,15 +1134,15 @@
       </c>
       <c r="J4">
         <f>B3*H3</f>
-        <v>1.3</v>
+        <v>0.63194444444444453</v>
       </c>
       <c r="K4">
         <f>D4*B4</f>
-        <v>2.02</v>
+        <v>0.63194444444444453</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>-0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1119,7 +1150,8 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <f>B4*I4/D5</f>
+        <v>0.18144939493949397</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1145,15 +1177,15 @@
       </c>
       <c r="J5">
         <f>B4*I4</f>
-        <v>0.57999999999999996</v>
+        <v>0.18144939493949397</v>
       </c>
       <c r="K5">
         <f>D5*B5</f>
-        <v>1</v>
+        <v>0.18144939493949397</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>-0.42000000000000004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ne583/Homework/hw04/Flux Solver.xlsx
+++ b/ne583/Homework/hw04/Flux Solver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrpowers-luhn/nucnotes/ne583/Homework/hw04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2C4646-9922-B841-9DB4-073C57E82419}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB06E871-07C4-8444-9CCB-F8BC20557B66}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="1080" windowWidth="28080" windowHeight="22020" xr2:uid="{95312167-5D1D-2B47-B41E-A908A7098FE7}"/>
+    <workbookView xWindow="8280" yWindow="460" windowWidth="28080" windowHeight="21140" xr2:uid="{95312167-5D1D-2B47-B41E-A908A7098FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="k-eff" sheetId="1" r:id="rId1"/>
@@ -18,68 +18,95 @@
     <sheet name="buckling" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">alpha!$B$2:$B$5</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">alpha!$A$9</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">buckling!$A$8</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'k-eff'!$B$2:$B$5</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">alpha!$B$2:$B$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">alpha!$A$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">buckling!$A$8</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'k-eff'!$B$2:$B$5</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">alpha!$A$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">buckling!$A$8</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">alpha!$L$2</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">buckling!$K$2</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'k-eff'!$L$2</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">alpha!$C$9</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">buckling!$B$8</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'k-eff'!$A$9</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
@@ -95,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Group</t>
   </si>
@@ -115,27 +142,12 @@
     <t>v</t>
   </si>
   <si>
-    <t>s-&gt;1</t>
-  </si>
-  <si>
     <t>s-&gt;2</t>
   </si>
   <si>
-    <t>s-&gt;3</t>
-  </si>
-  <si>
-    <t>Prod</t>
-  </si>
-  <si>
-    <t>Removal</t>
-  </si>
-  <si>
     <t>k_eff</t>
   </si>
   <si>
-    <t>net</t>
-  </si>
-  <si>
     <t>alpha</t>
   </si>
   <si>
@@ -145,20 +157,17 @@
     <t>alpha/v</t>
   </si>
   <si>
-    <t>P-R</t>
-  </si>
-  <si>
-    <t>nu-sigma_f / k</t>
-  </si>
-  <si>
-    <t>s-&gt;4</t>
+    <t>K_eff</t>
+  </si>
+  <si>
+    <t>s(g'-&gt;g)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -504,18 +513,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1AC7E8-0836-0E4F-86B4-7362F5AB4F69}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,36 +541,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <f>1/D2</f>
+        <v>13.888888888888889</v>
       </c>
       <c r="C2">
         <v>5.4999999999999997E-3</v>
@@ -581,35 +567,14 @@
       <c r="G2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>SUMPRODUCT(B2:B5,C2:C5)*1/L2</f>
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <f>D2*B2</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="L2">
-        <f>SUMPRODUCT(C2:C5,B2:B5)</f>
-        <v>4.5534999999999997</v>
-      </c>
-      <c r="M2">
-        <f>C2/$L$2</f>
-        <v>1.2078620841111233E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <f>B2*G2/D3</f>
+        <v>4.8611111111111116</v>
       </c>
       <c r="C3">
         <v>6.8000000000000005E-2</v>
@@ -624,33 +589,16 @@
         <v>320000000</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
         <v>0.13</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>B2*G2</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K3">
-        <f>D3*B3</f>
-        <v>0.2</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M5" si="0">C3/$L$2</f>
-        <v>1.493356758537389E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <f t="shared" ref="B4:B5" si="0">B3*G3/D4</f>
+        <v>0.31284378437843791</v>
       </c>
       <c r="C4">
         <v>2.48</v>
@@ -665,33 +613,16 @@
         <v>27000000</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J4">
-        <f>B3*H3</f>
-        <v>0.13</v>
-      </c>
-      <c r="K4">
-        <f>D4*B4</f>
-        <v>2.02</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>0.54463599429010656</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.18144939493949397</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -708,41 +639,35 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>B4*I4</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K5">
-        <f>D5*B5</f>
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>0.43922257604040849</v>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <f>SUMPRODUCT(C2:C5,B2:B5)</f>
+        <v>1.5456958195819583</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EA3BC8-13E8-BA46-BDBD-48998207E595}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -762,40 +687,23 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.99807541638815478</v>
+      <c r="B2" s="1">
+        <f>1/D2</f>
+        <v>13.402515362070202</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="D2" s="1">
-        <f>0.072+L2/F2</f>
-        <v>7.2000002272727265E-2</v>
+        <f>0.072+B9</f>
+        <v>7.4612859824063377E-2</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -806,41 +714,21 @@
       <c r="G2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>SUMPRODUCT(B2:B5,C2:C5)</f>
-        <v>2.4066198153144374</v>
-      </c>
-      <c r="K2">
-        <f>D2*B2</f>
-        <v>7.1861432248300355E-2</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1">
-        <f>$L$2/F2</f>
-        <v>2.2727272727272727E-9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.97620514982549156</v>
+      <c r="B3" s="1">
+        <f>B2*G2/D3</f>
+        <v>4.3042824013008163</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D3" s="1">
-        <f>0.2+L2/F2</f>
-        <v>0.2000000022727273</v>
+        <f>0.2+B10</f>
+        <v>0.21796341129043575</v>
       </c>
       <c r="E3">
         <v>0.7</v>
@@ -849,40 +737,23 @@
         <v>320000000</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
         <v>0.13</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>B2*G2</f>
-        <v>6.9865279147170847E-2</v>
-      </c>
-      <c r="K3">
-        <f>D3*B3</f>
-        <v>0.19524103218374639</v>
-      </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M5" si="0">$L$2/F3</f>
-        <v>1.5624999999999999E-8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0.13218778504181528</v>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B5" si="0">B3*G3/D4</f>
+        <v>0.25059643961321487</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2.48</v>
       </c>
       <c r="D4" s="1">
-        <f>2.02+L2/F2</f>
-        <v>2.0200000022727274</v>
+        <f>2.02+B11</f>
+        <v>2.2328996893681272</v>
       </c>
       <c r="E4">
         <v>0.2</v>
@@ -891,40 +762,23 @@
         <v>27000000</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J4">
-        <f>B3*H3</f>
-        <v>0.12690666947731391</v>
-      </c>
-      <c r="K4">
-        <f>D4*B4</f>
-        <v>0.26701932608489365</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8518518518518518E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.30015146405897586</v>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0578054700661053E-3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <f>1+L2/F2</f>
-        <v>1.0000000022727273</v>
+        <f>1+B12</f>
+        <v>23.993166451757741</v>
       </c>
       <c r="E5">
         <v>0.3</v>
@@ -935,44 +789,66 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>B4*I4</f>
-        <v>7.6668915324252851E-2</v>
-      </c>
-      <c r="K5">
-        <f>D5*B5</f>
-        <v>0.3001514647411383</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000002E-5</v>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>5748291.6129394351</v>
+      </c>
+      <c r="B9" s="1">
+        <f>$A$9/F2</f>
+        <v>2.6128598240633795E-3</v>
+      </c>
+      <c r="C9">
+        <f>SUMPRODUCT(B2:B5,C2:C5)</f>
+        <v>0.99999981896074686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="1">
+        <f>$A$9/F3</f>
+        <v>1.7963411290435733E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="1">
+        <f>$A$9/F4</f>
+        <v>0.21289968936812723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="1">
+        <f>$A$9/F5</f>
+        <v>22.993166451757741</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDD769B-A39F-9A4F-ACC8-DE19FA44B43F}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -992,41 +868,23 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <f>1/D2</f>
-        <v>13.888888888888889</v>
+        <v>9.5032427024479951</v>
       </c>
       <c r="C2">
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="D2">
-        <f>0.072+$M$2*E2</f>
-        <v>7.1999999999999995E-2</v>
+        <f>0.072+$A$8*E2</f>
+        <v>0.10522723993383902</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1037,42 +895,21 @@
       <c r="G2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>SUMPRODUCT(B2:B5,C2:C5)</f>
-        <v>1.5456958195819583</v>
-      </c>
-      <c r="K2">
-        <f>D2*B2</f>
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <f>J2-K2</f>
-        <v>0.54569581958195834</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <f>B2*G2/D3</f>
-        <v>4.8611111111111116</v>
+        <v>3.1433561123096756</v>
       </c>
       <c r="C3">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="D3">
-        <f>0.2+$M$2*E3</f>
-        <v>0.2</v>
+        <f>0.2+$A$8*E3</f>
+        <v>0.21162953397684367</v>
       </c>
       <c r="E3">
         <v>0.7</v>
@@ -1081,41 +918,23 @@
         <v>320000000</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
         <v>0.13</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>B2*G2</f>
-        <v>0.97222222222222232</v>
-      </c>
-      <c r="K3">
-        <f>D3*B3</f>
-        <v>0.97222222222222232</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L5" si="0">J3-K3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f>B3*H3/D4</f>
-        <v>0.31284378437843791</v>
+        <f t="shared" ref="B4:B5" si="0">B3*G3/D4</f>
+        <v>0.20196298383568892</v>
       </c>
       <c r="C4">
         <v>2.48</v>
       </c>
       <c r="D4">
-        <f>2.02+$M$2*E4</f>
-        <v>2.02</v>
+        <f>2.02+$A$8*E4</f>
+        <v>2.0233227239933838</v>
       </c>
       <c r="E4">
         <v>0.2</v>
@@ -1124,41 +943,23 @@
         <v>27000000</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J4">
-        <f>B3*H3</f>
-        <v>0.63194444444444453</v>
-      </c>
-      <c r="K4">
-        <f>D4*B4</f>
-        <v>0.63194444444444453</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f>B4*I4/D5</f>
-        <v>0.18144939493949397</v>
+        <f t="shared" si="0"/>
+        <v>0.11655759753578455</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <f>1+$M$2*E5</f>
-        <v>1</v>
+        <f>1+$A$8*E5</f>
+        <v>1.0049840859900758</v>
       </c>
       <c r="E5">
         <v>0.3</v>
@@ -1169,26 +970,26 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>B4*I4</f>
-        <v>0.18144939493949397</v>
-      </c>
-      <c r="K5">
-        <f>D5*B5</f>
-        <v>0.18144939493949397</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>1.6613619966919513E-2</v>
+      </c>
+      <c r="B8">
+        <f>SUMPRODUCT(C2:C5,B2:B5)</f>
+        <v>0.99999944548459951</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>